--- a/Code/Results/Cases/Case_8_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.69884975593691</v>
+        <v>12.4124993086723</v>
       </c>
       <c r="C2">
-        <v>7.92441937383762</v>
+        <v>8.171159166461987</v>
       </c>
       <c r="D2">
-        <v>5.464180578237918</v>
+        <v>5.390280454331306</v>
       </c>
       <c r="E2">
-        <v>8.027429870467667</v>
+        <v>8.145173502175158</v>
       </c>
       <c r="F2">
-        <v>20.10867133062908</v>
+        <v>19.12399297049846</v>
       </c>
       <c r="G2">
-        <v>2.109005250782172</v>
+        <v>5.012654588032609</v>
       </c>
       <c r="H2">
-        <v>2.688154817181659</v>
+        <v>2.458064303152302</v>
       </c>
       <c r="I2">
-        <v>3.317796758896168</v>
+        <v>3.051539543121789</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.53818913701312</v>
+        <v>15.62642193351893</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.84703734483284</v>
       </c>
       <c r="M2">
-        <v>10.76919744699971</v>
+        <v>10.2745809804351</v>
       </c>
       <c r="N2">
-        <v>6.531108633829861</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.832644851411558</v>
+        <v>10.92483795003823</v>
       </c>
       <c r="P2">
-        <v>13.39575174907828</v>
+        <v>6.716146222773512</v>
       </c>
       <c r="Q2">
-        <v>16.72799870763129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.707740096467662</v>
+      </c>
+      <c r="R2">
+        <v>13.07991226802804</v>
+      </c>
+      <c r="S2">
+        <v>15.82515338305454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.9094666926047</v>
+        <v>11.62693284768986</v>
       </c>
       <c r="C3">
-        <v>7.69083657376942</v>
+        <v>7.90244468449227</v>
       </c>
       <c r="D3">
-        <v>5.291430468081982</v>
+        <v>5.188400236876581</v>
       </c>
       <c r="E3">
-        <v>7.883636533427617</v>
+        <v>8.038117112010569</v>
       </c>
       <c r="F3">
-        <v>19.79262159908936</v>
+        <v>18.8100590311777</v>
       </c>
       <c r="G3">
-        <v>2.112362502725205</v>
+        <v>5.457015931990418</v>
       </c>
       <c r="H3">
-        <v>2.859887116127715</v>
+        <v>2.610283618575775</v>
       </c>
       <c r="I3">
-        <v>3.457200757741349</v>
+        <v>3.167660673789094</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.54469637317144</v>
+        <v>15.64300318366243</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.95620739081317</v>
       </c>
       <c r="M3">
-        <v>10.16132221133006</v>
+        <v>10.21758683681247</v>
       </c>
       <c r="N3">
-        <v>6.369080104764337</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.465304318870526</v>
+        <v>10.33695993741098</v>
       </c>
       <c r="P3">
-        <v>13.52950555390802</v>
+        <v>6.560388981058475</v>
       </c>
       <c r="Q3">
-        <v>16.65803432136434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.345605964013787</v>
+      </c>
+      <c r="R3">
+        <v>13.1972014792636</v>
+      </c>
+      <c r="S3">
+        <v>15.7501951590923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.3958370600086</v>
+        <v>11.11293652693269</v>
       </c>
       <c r="C4">
-        <v>7.543935312672525</v>
+        <v>7.73427116562112</v>
       </c>
       <c r="D4">
-        <v>5.181855200570069</v>
+        <v>5.060015672148951</v>
       </c>
       <c r="E4">
-        <v>7.792500994804563</v>
+        <v>7.970331159939778</v>
       </c>
       <c r="F4">
-        <v>19.60369525393793</v>
+        <v>18.61940258305819</v>
       </c>
       <c r="G4">
-        <v>2.114498300752426</v>
+        <v>5.739844813245675</v>
       </c>
       <c r="H4">
-        <v>2.969370685688865</v>
+        <v>2.707393070754676</v>
       </c>
       <c r="I4">
-        <v>3.546848205996804</v>
+        <v>3.24274718139042</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.55190717552441</v>
+        <v>15.6547564994785</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.02385068458074</v>
       </c>
       <c r="M4">
-        <v>9.768035717102071</v>
+        <v>10.1986672490932</v>
       </c>
       <c r="N4">
-        <v>6.267593501820341</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.232498276358715</v>
+        <v>9.957278629616876</v>
       </c>
       <c r="P4">
-        <v>13.61314903326442</v>
+        <v>6.463256012409378</v>
       </c>
       <c r="Q4">
-        <v>16.62016571762674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.115671974981291</v>
+      </c>
+      <c r="R4">
+        <v>13.27067252608222</v>
+      </c>
+      <c r="S4">
+        <v>15.70700987658075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.17440598942772</v>
+        <v>10.8906339706259</v>
       </c>
       <c r="C5">
-        <v>7.486676907018669</v>
+        <v>7.66895031888455</v>
       </c>
       <c r="D5">
-        <v>5.1374346927228</v>
+        <v>5.007777221975751</v>
       </c>
       <c r="E5">
-        <v>7.753201536985882</v>
+        <v>7.940842005175458</v>
       </c>
       <c r="F5">
-        <v>19.52192394995144</v>
+        <v>18.53599874521742</v>
       </c>
       <c r="G5">
-        <v>2.115393482996051</v>
+        <v>5.858447388143618</v>
       </c>
       <c r="H5">
-        <v>3.015317799756482</v>
+        <v>2.74817515872991</v>
       </c>
       <c r="I5">
-        <v>3.587013825914707</v>
+        <v>3.277422841977361</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.5510105506712</v>
+        <v>15.65531778973236</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.04723204001196</v>
       </c>
       <c r="M5">
-        <v>9.602565221545813</v>
+        <v>10.19242901225649</v>
       </c>
       <c r="N5">
-        <v>6.226269255990976</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.1347340798649</v>
+        <v>9.797728590524986</v>
       </c>
       <c r="P5">
-        <v>13.64708847090116</v>
+        <v>6.423831733616278</v>
       </c>
       <c r="Q5">
-        <v>16.60158003534594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.018982321399289</v>
+      </c>
+      <c r="R5">
+        <v>13.30052420335027</v>
+      </c>
+      <c r="S5">
+        <v>15.68558842320222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.13120474931129</v>
+        <v>10.84729453554673</v>
       </c>
       <c r="C6">
-        <v>7.4813797987173</v>
+        <v>7.662932153260763</v>
       </c>
       <c r="D6">
-        <v>5.131336880141909</v>
+        <v>5.000453275831966</v>
       </c>
       <c r="E6">
-        <v>7.744851005851504</v>
+        <v>7.934255866907598</v>
       </c>
       <c r="F6">
-        <v>19.50092726994821</v>
+        <v>18.51448137399361</v>
       </c>
       <c r="G6">
-        <v>2.11555043631637</v>
+        <v>5.879278818511159</v>
       </c>
       <c r="H6">
-        <v>3.023381156965203</v>
+        <v>2.755348571363884</v>
       </c>
       <c r="I6">
-        <v>3.59708872278167</v>
+        <v>3.287259903033517</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.54525112583623</v>
+        <v>15.64979621242238</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.04582890963103</v>
       </c>
       <c r="M6">
-        <v>9.574521773575061</v>
+        <v>10.18844858348854</v>
       </c>
       <c r="N6">
-        <v>6.219992490877731</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.116951071954922</v>
+        <v>9.770716579361901</v>
       </c>
       <c r="P6">
-        <v>13.6520957719866</v>
+        <v>6.417875438391395</v>
       </c>
       <c r="Q6">
-        <v>16.59317064512808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.00136144182636</v>
+      </c>
+      <c r="R6">
+        <v>13.30494683057497</v>
+      </c>
+      <c r="S6">
+        <v>15.67653865135377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.37686826922456</v>
+        <v>11.08468556738167</v>
       </c>
       <c r="C7">
-        <v>7.554729946606393</v>
+        <v>7.734487566348852</v>
       </c>
       <c r="D7">
-        <v>5.184867845808331</v>
+        <v>5.070697579836047</v>
       </c>
       <c r="E7">
-        <v>7.787152044299933</v>
+        <v>7.968095696765778</v>
       </c>
       <c r="F7">
-        <v>19.58221741825971</v>
+        <v>18.55691277138547</v>
       </c>
       <c r="G7">
-        <v>2.114529512035197</v>
+        <v>5.794979267396119</v>
       </c>
       <c r="H7">
-        <v>2.970982471110885</v>
+        <v>2.710020918842593</v>
       </c>
       <c r="I7">
-        <v>3.556225956773615</v>
+        <v>3.25504618272396</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.53646769216559</v>
+        <v>15.62102156690607</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.99330644526966</v>
       </c>
       <c r="M7">
-        <v>9.765106918049003</v>
+        <v>10.17847546014811</v>
       </c>
       <c r="N7">
-        <v>6.268703754484593</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.227278028391524</v>
+        <v>9.942060727068602</v>
       </c>
       <c r="P7">
-        <v>13.61187369559305</v>
+        <v>6.463156225468338</v>
       </c>
       <c r="Q7">
-        <v>16.60520824735207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.106495134299902</v>
+      </c>
+      <c r="R7">
+        <v>13.26753679053886</v>
+      </c>
+      <c r="S7">
+        <v>15.66261993974512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.41308802518996</v>
+        <v>12.09985297580308</v>
       </c>
       <c r="C8">
-        <v>7.859596570013788</v>
+        <v>8.056958666660412</v>
       </c>
       <c r="D8">
-        <v>5.410033130077617</v>
+        <v>5.351077561988707</v>
       </c>
       <c r="E8">
-        <v>7.972281935741029</v>
+        <v>8.111799463271053</v>
       </c>
       <c r="F8">
-        <v>19.9723058659818</v>
+        <v>18.8575742734515</v>
       </c>
       <c r="G8">
-        <v>2.110171534875179</v>
+        <v>5.436556706523426</v>
       </c>
       <c r="H8">
-        <v>2.747776115669526</v>
+        <v>2.514553226963521</v>
       </c>
       <c r="I8">
-        <v>3.376271709651408</v>
+        <v>3.108105763679577</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.51949860133145</v>
+        <v>15.55193446410763</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.81661500122569</v>
       </c>
       <c r="M8">
-        <v>10.56290799019987</v>
+        <v>10.19782036858645</v>
       </c>
       <c r="N8">
-        <v>6.477850330092407</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.702615566838173</v>
+        <v>10.6864231035485</v>
       </c>
       <c r="P8">
-        <v>13.43948740977467</v>
+        <v>6.661070283879635</v>
       </c>
       <c r="Q8">
-        <v>16.6835700160202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.567038239626132</v>
+      </c>
+      <c r="R8">
+        <v>13.11273748755613</v>
+      </c>
+      <c r="S8">
+        <v>15.68438768192408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.23930164262329</v>
+        <v>13.90035437455127</v>
       </c>
       <c r="C9">
-        <v>8.409344252513772</v>
+        <v>8.683557819495675</v>
       </c>
       <c r="D9">
-        <v>5.816367636092557</v>
+        <v>5.829613886971085</v>
       </c>
       <c r="E9">
-        <v>8.320460015719673</v>
+        <v>8.374775129701094</v>
       </c>
       <c r="F9">
-        <v>20.81060651088423</v>
+        <v>19.64598700862299</v>
       </c>
       <c r="G9">
-        <v>2.102172953354385</v>
+        <v>4.481158227818407</v>
       </c>
       <c r="H9">
-        <v>2.339950586093454</v>
+        <v>2.154091072383626</v>
       </c>
       <c r="I9">
-        <v>3.040719927341794</v>
+        <v>2.828064303485723</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.53976151507276</v>
+        <v>15.52296826554119</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.55834204344901</v>
       </c>
       <c r="M9">
-        <v>11.96766517201652</v>
+        <v>10.41995361466756</v>
       </c>
       <c r="N9">
-        <v>6.86772614482337</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.57928744909813</v>
+        <v>12.04168917039046</v>
       </c>
       <c r="P9">
-        <v>13.11576039033492</v>
+        <v>7.037307011822278</v>
       </c>
       <c r="Q9">
-        <v>16.90438921722715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.42691347694231</v>
+      </c>
+      <c r="R9">
+        <v>12.83003188060172</v>
+      </c>
+      <c r="S9">
+        <v>15.88223095248433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.43018343405124</v>
+        <v>14.99018872998503</v>
       </c>
       <c r="C10">
-        <v>8.834141090200863</v>
+        <v>9.100800556359905</v>
       </c>
       <c r="D10">
-        <v>6.114091552767487</v>
+        <v>6.214792224860816</v>
       </c>
       <c r="E10">
-        <v>8.458656471002373</v>
+        <v>8.476590219879142</v>
       </c>
       <c r="F10">
-        <v>21.34646069499255</v>
+        <v>19.92620429607862</v>
       </c>
       <c r="G10">
-        <v>2.096730946760459</v>
+        <v>5.069297172303046</v>
       </c>
       <c r="H10">
-        <v>2.088608482185653</v>
+        <v>1.941428100124086</v>
       </c>
       <c r="I10">
-        <v>2.823498337612409</v>
+        <v>2.656630917901201</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.49910666301753</v>
+        <v>15.34656049447831</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.25512314676169</v>
       </c>
       <c r="M10">
-        <v>12.8967626596328</v>
+        <v>10.52083630997313</v>
       </c>
       <c r="N10">
-        <v>7.042851636068413</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.0917770346358</v>
+        <v>12.88192821752968</v>
       </c>
       <c r="P10">
-        <v>12.87884100735442</v>
+        <v>7.198295120161758</v>
       </c>
       <c r="Q10">
-        <v>17.01806490446949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.90777028972444</v>
+      </c>
+      <c r="R10">
+        <v>12.62232521997868</v>
+      </c>
+      <c r="S10">
+        <v>15.81529036137608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.59194442273056</v>
+        <v>15.07527767708428</v>
       </c>
       <c r="C11">
-        <v>9.347318282885228</v>
+        <v>9.490220734552162</v>
       </c>
       <c r="D11">
-        <v>6.396026403847135</v>
+        <v>6.603566716031324</v>
       </c>
       <c r="E11">
-        <v>7.788845504123305</v>
+        <v>7.856334594335376</v>
       </c>
       <c r="F11">
-        <v>20.78312836275932</v>
+        <v>18.9495088885685</v>
       </c>
       <c r="G11">
-        <v>2.095070266082011</v>
+        <v>8.489775431077421</v>
       </c>
       <c r="H11">
-        <v>2.99966252485987</v>
+        <v>2.911273473703981</v>
       </c>
       <c r="I11">
-        <v>2.784642047766214</v>
+        <v>2.643708426769396</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.90372993435707</v>
+        <v>14.61401089581369</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.67481264824421</v>
       </c>
       <c r="M11">
-        <v>13.27183321458705</v>
+        <v>10.02264488891028</v>
       </c>
       <c r="N11">
-        <v>6.307965513609283</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.56319993168087</v>
+        <v>13.1240797742382</v>
       </c>
       <c r="P11">
-        <v>12.74268463738133</v>
+        <v>6.443620635756058</v>
       </c>
       <c r="Q11">
-        <v>16.46575434548535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.34335464017844</v>
+      </c>
+      <c r="R11">
+        <v>12.53851393733536</v>
+      </c>
+      <c r="S11">
+        <v>14.97589745345888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.50077374959251</v>
+        <v>14.9690122526049</v>
       </c>
       <c r="C12">
-        <v>9.701656783463815</v>
+        <v>9.764057785624027</v>
       </c>
       <c r="D12">
-        <v>6.572505554922377</v>
+        <v>6.828739110217209</v>
       </c>
       <c r="E12">
-        <v>7.428050420791515</v>
+        <v>7.516022719617464</v>
       </c>
       <c r="F12">
-        <v>20.20907571911929</v>
+        <v>18.21611545641255</v>
       </c>
       <c r="G12">
-        <v>2.094704119465294</v>
+        <v>10.27886318891894</v>
       </c>
       <c r="H12">
-        <v>4.318288188671635</v>
+        <v>4.258897120375964</v>
       </c>
       <c r="I12">
-        <v>2.776630808698817</v>
+        <v>2.641546866500337</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.43751044323601</v>
+        <v>14.13558092066927</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.33391209845175</v>
       </c>
       <c r="M12">
-        <v>13.4007288829242</v>
+        <v>9.649517621420136</v>
       </c>
       <c r="N12">
-        <v>5.72218190622124</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.01131421633093</v>
+        <v>13.19371439282568</v>
       </c>
       <c r="P12">
-        <v>12.69569015588526</v>
+        <v>5.847305314922451</v>
       </c>
       <c r="Q12">
-        <v>15.99000379787434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.780690060628991</v>
+      </c>
+      <c r="R12">
+        <v>12.53852412076247</v>
+      </c>
+      <c r="S12">
+        <v>14.40447978396113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.18822114751071</v>
+        <v>14.70570109752107</v>
       </c>
       <c r="C13">
-        <v>9.973383522018436</v>
+        <v>10.023212584973</v>
       </c>
       <c r="D13">
-        <v>6.685845818921241</v>
+        <v>6.927940510316692</v>
       </c>
       <c r="E13">
-        <v>7.301741808516329</v>
+        <v>7.400123787053747</v>
       </c>
       <c r="F13">
-        <v>19.55347594206309</v>
+        <v>17.67351968026409</v>
       </c>
       <c r="G13">
-        <v>2.095340219371887</v>
+        <v>9.899863172450779</v>
       </c>
       <c r="H13">
-        <v>5.70821448764055</v>
+        <v>5.660026150341452</v>
       </c>
       <c r="I13">
-        <v>2.806934420882783</v>
+        <v>2.664605323236761</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.02067801094994</v>
+        <v>13.82514556972056</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.13618939517487</v>
       </c>
       <c r="M13">
-        <v>13.35111844597718</v>
+        <v>9.366225013754883</v>
       </c>
       <c r="N13">
-        <v>5.23839378721869</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.392851130173069</v>
+        <v>13.16113286007815</v>
       </c>
       <c r="P13">
-        <v>12.70963077416642</v>
+        <v>5.360918806442796</v>
       </c>
       <c r="Q13">
-        <v>15.52029546364242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.177135754183208</v>
+      </c>
+      <c r="R13">
+        <v>12.58064379614912</v>
+      </c>
+      <c r="S13">
+        <v>14.034755127333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.86103457289492</v>
+        <v>14.44213538699008</v>
       </c>
       <c r="C14">
-        <v>10.13407589775982</v>
+        <v>10.20863655290578</v>
       </c>
       <c r="D14">
-        <v>6.738745183866121</v>
+        <v>6.942068373475046</v>
       </c>
       <c r="E14">
-        <v>7.359384463626964</v>
+        <v>7.468856732591317</v>
       </c>
       <c r="F14">
-        <v>19.04971420612921</v>
+        <v>17.36486986212941</v>
       </c>
       <c r="G14">
-        <v>2.096240641359834</v>
+        <v>8.691585782139793</v>
       </c>
       <c r="H14">
-        <v>6.701504578847246</v>
+        <v>6.656696964978398</v>
       </c>
       <c r="I14">
-        <v>2.848356756895014</v>
+        <v>2.695863651142233</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.75186516644833</v>
+        <v>13.67326401569564</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.04976604930521</v>
       </c>
       <c r="M14">
-        <v>13.23493030627222</v>
+        <v>9.204931668864784</v>
       </c>
       <c r="N14">
-        <v>4.977175312350434</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.925423143837904</v>
+        <v>13.09062938923319</v>
       </c>
       <c r="P14">
-        <v>12.74778664620249</v>
+        <v>5.100511233337064</v>
       </c>
       <c r="Q14">
-        <v>15.19192580961288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.730794379979246</v>
+      </c>
+      <c r="R14">
+        <v>12.62432665552135</v>
+      </c>
+      <c r="S14">
+        <v>13.85475890208465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.72769790678512</v>
+        <v>14.336994840787</v>
       </c>
       <c r="C15">
-        <v>10.15857774087158</v>
+        <v>10.25491013847814</v>
       </c>
       <c r="D15">
-        <v>6.739066126137727</v>
+        <v>6.920547668839305</v>
       </c>
       <c r="E15">
-        <v>7.38937254121122</v>
+        <v>7.505873344374026</v>
       </c>
       <c r="F15">
-        <v>18.90422416076235</v>
+        <v>17.31578429304534</v>
       </c>
       <c r="G15">
-        <v>2.096691193631968</v>
+        <v>8.008970154482952</v>
       </c>
       <c r="H15">
-        <v>6.933649457277505</v>
+        <v>6.888500285772459</v>
       </c>
       <c r="I15">
-        <v>2.871511534357682</v>
+        <v>2.714707272769052</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.69242212682093</v>
+        <v>13.65978060594185</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.04749117244426</v>
       </c>
       <c r="M15">
-        <v>13.16768035738421</v>
+        <v>9.177948082193868</v>
       </c>
       <c r="N15">
-        <v>4.925974111321303</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.795969817637465</v>
+        <v>13.04922155741452</v>
       </c>
       <c r="P15">
-        <v>12.76781495438892</v>
+        <v>5.050893442829973</v>
       </c>
       <c r="Q15">
-        <v>15.10976285072638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.61091473331064</v>
+      </c>
+      <c r="R15">
+        <v>12.6398377213559</v>
+      </c>
+      <c r="S15">
+        <v>13.84130240705061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.2647896134987</v>
+        <v>13.98101690175889</v>
       </c>
       <c r="C16">
-        <v>9.942372198665399</v>
+        <v>10.16675494955479</v>
       </c>
       <c r="D16">
-        <v>6.598304134029044</v>
+        <v>6.676289822807011</v>
       </c>
       <c r="E16">
-        <v>7.341970784691474</v>
+        <v>7.494997654104181</v>
       </c>
       <c r="F16">
-        <v>18.77429730744629</v>
+        <v>17.58788638760593</v>
       </c>
       <c r="G16">
-        <v>2.098892018590436</v>
+        <v>5.112053291043547</v>
       </c>
       <c r="H16">
-        <v>6.739930706228749</v>
+        <v>6.683805336282614</v>
       </c>
       <c r="I16">
-        <v>2.963739675537027</v>
+        <v>2.782663055314894</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.78816444819348</v>
+        <v>13.90177758206003</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.24611394392832</v>
       </c>
       <c r="M16">
-        <v>12.79411801019607</v>
+        <v>9.307552897377459</v>
       </c>
       <c r="N16">
-        <v>4.938427980079615</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.676394428245066</v>
+        <v>12.7992721747318</v>
       </c>
       <c r="P16">
-        <v>12.85757449461014</v>
+        <v>5.077858938859186</v>
       </c>
       <c r="Q16">
-        <v>15.14319319998557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.528376054218503</v>
+      </c>
+      <c r="R16">
+        <v>12.68398467053381</v>
+      </c>
+      <c r="S16">
+        <v>14.14425450462616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.08458698423696</v>
+        <v>13.83731661548626</v>
       </c>
       <c r="C17">
-        <v>9.684614550287019</v>
+        <v>9.970111626223515</v>
       </c>
       <c r="D17">
-        <v>6.459633977234044</v>
+        <v>6.492308957800685</v>
       </c>
       <c r="E17">
-        <v>7.250487676346381</v>
+        <v>7.413153622756841</v>
       </c>
       <c r="F17">
-        <v>18.9484563543573</v>
+        <v>17.91446970572635</v>
       </c>
       <c r="G17">
-        <v>2.10010883766461</v>
+        <v>4.288128503248364</v>
       </c>
       <c r="H17">
-        <v>6.033941756949294</v>
+        <v>5.965328998440814</v>
       </c>
       <c r="I17">
-        <v>3.013319325570406</v>
+        <v>2.820171681424824</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.00179345512662</v>
+        <v>14.1561726855505</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.44801370404754</v>
       </c>
       <c r="M17">
-        <v>12.56609867807525</v>
+        <v>9.474116901423088</v>
       </c>
       <c r="N17">
-        <v>5.07275961584131</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.838826962949248</v>
+        <v>12.62646411724307</v>
       </c>
       <c r="P17">
-        <v>12.9068306859892</v>
+        <v>5.222847026144347</v>
       </c>
       <c r="Q17">
-        <v>15.34389724120903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.704103746269425</v>
+      </c>
+      <c r="R17">
+        <v>12.706651944439</v>
+      </c>
+      <c r="S17">
+        <v>14.44289173530544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.1462549784272</v>
+        <v>13.89331758394452</v>
       </c>
       <c r="C18">
-        <v>9.36073130378365</v>
+        <v>9.678854545968106</v>
       </c>
       <c r="D18">
-        <v>6.306831181444044</v>
+        <v>6.322326992616641</v>
       </c>
       <c r="E18">
-        <v>7.247082928097237</v>
+        <v>7.391969611091271</v>
       </c>
       <c r="F18">
-        <v>19.41406430716963</v>
+        <v>18.41592335443432</v>
       </c>
       <c r="G18">
-        <v>2.100555839028452</v>
+        <v>4.077192427566687</v>
       </c>
       <c r="H18">
-        <v>4.842984890107587</v>
+        <v>4.755131421600862</v>
       </c>
       <c r="I18">
-        <v>3.019688719692904</v>
+        <v>2.820372902210247</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.35779326874199</v>
+        <v>14.49780965175377</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.70908951513379</v>
       </c>
       <c r="M18">
-        <v>12.44343251883063</v>
+        <v>9.726721694312026</v>
       </c>
       <c r="N18">
-        <v>5.40070523584504</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.268836372912844</v>
+        <v>12.52664170509182</v>
       </c>
       <c r="P18">
-        <v>12.93419803308731</v>
+        <v>5.559124196810258</v>
       </c>
       <c r="Q18">
-        <v>15.72099440805983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.13560467891082</v>
+      </c>
+      <c r="R18">
+        <v>12.71360854105147</v>
+      </c>
+      <c r="S18">
+        <v>14.83818548046414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.37363602818844</v>
+        <v>14.08879696700413</v>
       </c>
       <c r="C19">
-        <v>9.052535316768918</v>
+        <v>9.386999300434599</v>
       </c>
       <c r="D19">
-        <v>6.164772576951865</v>
+        <v>6.179596935656511</v>
       </c>
       <c r="E19">
-        <v>7.510916287071685</v>
+        <v>7.612827186609904</v>
       </c>
       <c r="F19">
-        <v>20.03976746197323</v>
+        <v>19.01369812728193</v>
       </c>
       <c r="G19">
-        <v>2.100327185181993</v>
+        <v>3.99453372015167</v>
       </c>
       <c r="H19">
-        <v>3.474712051091858</v>
+        <v>3.355347797785382</v>
       </c>
       <c r="I19">
-        <v>3.00750283970258</v>
+        <v>2.811234261865529</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.78984610307353</v>
+        <v>14.88361786182544</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.99673788450179</v>
       </c>
       <c r="M19">
-        <v>12.41587109953394</v>
+        <v>10.02845445844848</v>
       </c>
       <c r="N19">
-        <v>5.94899844429731</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.87648997042321</v>
+        <v>12.50319774216977</v>
       </c>
       <c r="P19">
-        <v>12.95260634446173</v>
+        <v>6.112514599791751</v>
       </c>
       <c r="Q19">
-        <v>16.18962956797998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.737771170160494</v>
+      </c>
+      <c r="R19">
+        <v>12.71447154538324</v>
+      </c>
+      <c r="S19">
+        <v>15.28144800680184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.08330414649419</v>
+        <v>14.70005226627887</v>
       </c>
       <c r="C20">
-        <v>8.759130767652644</v>
+        <v>9.073162449166453</v>
       </c>
       <c r="D20">
-        <v>6.048390301333622</v>
+        <v>6.102325619192506</v>
       </c>
       <c r="E20">
-        <v>8.405329221939729</v>
+        <v>8.424496321662804</v>
       </c>
       <c r="F20">
-        <v>21.1422749089658</v>
+        <v>19.92103967136113</v>
       </c>
       <c r="G20">
-        <v>2.098192034676714</v>
+        <v>4.140374165683075</v>
       </c>
       <c r="H20">
-        <v>2.155550617015118</v>
+        <v>1.99467892914964</v>
       </c>
       <c r="I20">
-        <v>2.909835356989997</v>
+        <v>2.733922823918478</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.4592180704984</v>
+        <v>15.40693494582724</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.34334309599222</v>
       </c>
       <c r="M20">
-        <v>12.65762424957154</v>
+        <v>10.50323087649173</v>
       </c>
       <c r="N20">
-        <v>6.997707580574714</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.94550104841794</v>
+        <v>12.70180413056873</v>
       </c>
       <c r="P20">
-        <v>12.93666227239961</v>
+        <v>7.160426881094486</v>
       </c>
       <c r="Q20">
-        <v>16.93964533747801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.78181964607613</v>
+      </c>
+      <c r="R20">
+        <v>12.67697286547229</v>
+      </c>
+      <c r="S20">
+        <v>15.88328494103842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.0313484747837</v>
+        <v>15.42082732589135</v>
       </c>
       <c r="C21">
-        <v>9.020163297096714</v>
+        <v>9.126409122364256</v>
       </c>
       <c r="D21">
-        <v>6.242444733025152</v>
+        <v>6.491975287666621</v>
       </c>
       <c r="E21">
-        <v>8.666202560425766</v>
+        <v>8.703266278169943</v>
       </c>
       <c r="F21">
-        <v>21.71206625927721</v>
+        <v>19.59857325204873</v>
       </c>
       <c r="G21">
-        <v>2.093965156362499</v>
+        <v>10.03049382403528</v>
       </c>
       <c r="H21">
-        <v>1.923738996926359</v>
+        <v>1.807647904497348</v>
       </c>
       <c r="I21">
-        <v>2.736301448457025</v>
+        <v>2.611620886608815</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.54464656457769</v>
+        <v>15.05046638937341</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.96697573746779</v>
       </c>
       <c r="M21">
-        <v>13.3439386046523</v>
+        <v>10.40570418101501</v>
       </c>
       <c r="N21">
-        <v>7.281611461292485</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.46195546495573</v>
+        <v>13.13847872795835</v>
       </c>
       <c r="P21">
-        <v>12.76549409515219</v>
+        <v>7.416383087254634</v>
       </c>
       <c r="Q21">
-        <v>17.15037266102771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.21016498714487</v>
+      </c>
+      <c r="R21">
+        <v>12.51528273520473</v>
+      </c>
+      <c r="S21">
+        <v>15.4330730908866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.61662300704715</v>
+        <v>15.85775896688491</v>
       </c>
       <c r="C22">
-        <v>9.191421932945284</v>
+        <v>9.16065791682338</v>
       </c>
       <c r="D22">
-        <v>6.369934657316814</v>
+        <v>6.755131936804156</v>
       </c>
       <c r="E22">
-        <v>8.787526856057038</v>
+        <v>8.850183260066034</v>
       </c>
       <c r="F22">
-        <v>22.06375642392486</v>
+        <v>19.32435394134408</v>
       </c>
       <c r="G22">
-        <v>2.091285607772657</v>
+        <v>14.88777350803858</v>
       </c>
       <c r="H22">
-        <v>1.788304960093929</v>
+        <v>1.700094771280016</v>
       </c>
       <c r="I22">
-        <v>2.615950324821086</v>
+        <v>2.520305987698415</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.58993436390405</v>
+        <v>14.78576592961799</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.7131806625058</v>
       </c>
       <c r="M22">
-        <v>13.77333955085838</v>
+        <v>10.31410189436147</v>
       </c>
       <c r="N22">
-        <v>7.411218681126696</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.74979300832407</v>
+        <v>13.4002890078018</v>
       </c>
       <c r="P22">
-        <v>12.65346771466591</v>
+        <v>7.527588317387544</v>
       </c>
       <c r="Q22">
-        <v>17.27630696020942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.43759255402469</v>
+      </c>
+      <c r="R22">
+        <v>12.41885251122651</v>
+      </c>
+      <c r="S22">
+        <v>15.09166608020024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.32046987778601</v>
+        <v>15.65819727364092</v>
       </c>
       <c r="C23">
-        <v>9.087999332798695</v>
+        <v>9.153699132434509</v>
       </c>
       <c r="D23">
-        <v>6.298446521115257</v>
+        <v>6.592727953869917</v>
       </c>
       <c r="E23">
-        <v>8.727924972579581</v>
+        <v>8.767693891517601</v>
       </c>
       <c r="F23">
-        <v>21.89720771529861</v>
+        <v>19.58601287943863</v>
       </c>
       <c r="G23">
-        <v>2.092692694884321</v>
+        <v>11.48397703708763</v>
       </c>
       <c r="H23">
-        <v>1.859390677102619</v>
+        <v>1.754761816727263</v>
       </c>
       <c r="I23">
-        <v>2.667738310824478</v>
+        <v>2.552444291828188</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.58297499060493</v>
+        <v>14.9866830463018</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.88690836806663</v>
       </c>
       <c r="M23">
-        <v>13.54647772860988</v>
+        <v>10.41441139277388</v>
       </c>
       <c r="N23">
-        <v>7.340492167560182</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.60075529967427</v>
+        <v>13.28698909958941</v>
       </c>
       <c r="P23">
-        <v>12.71447932189391</v>
+        <v>7.468991187678997</v>
       </c>
       <c r="Q23">
-        <v>17.22494877759091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.32928627373256</v>
+      </c>
+      <c r="R23">
+        <v>12.46954117303552</v>
+      </c>
+      <c r="S23">
+        <v>15.3592687297573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.12130155496653</v>
+        <v>14.7360945060449</v>
       </c>
       <c r="C24">
-        <v>8.708745547835054</v>
+        <v>9.020741063754313</v>
       </c>
       <c r="D24">
-        <v>6.025984860010402</v>
+        <v>6.078061631307801</v>
       </c>
       <c r="E24">
-        <v>8.489098079292733</v>
+        <v>8.502558090768606</v>
       </c>
       <c r="F24">
-        <v>21.23859505511722</v>
+        <v>20.01992574184266</v>
       </c>
       <c r="G24">
-        <v>2.098161286043515</v>
+        <v>4.103090864457311</v>
       </c>
       <c r="H24">
-        <v>2.136252139374903</v>
+        <v>1.974878236501652</v>
       </c>
       <c r="I24">
-        <v>2.890231202307544</v>
+        <v>2.710266366513569</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.53646889060009</v>
+        <v>15.48031211420432</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.39890339828577</v>
       </c>
       <c r="M24">
-        <v>12.64955920545201</v>
+        <v>10.55934191923942</v>
       </c>
       <c r="N24">
-        <v>7.069989829086366</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.01267335702472</v>
+        <v>12.69564115068393</v>
       </c>
       <c r="P24">
-        <v>12.9455567840496</v>
+        <v>7.233291743539335</v>
       </c>
       <c r="Q24">
-        <v>17.01553884486129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.84891854356533</v>
+      </c>
+      <c r="R24">
+        <v>12.68228414630372</v>
+      </c>
+      <c r="S24">
+        <v>15.96010566998944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.74595471455178</v>
+        <v>13.42736066152666</v>
       </c>
       <c r="C25">
-        <v>8.283575426337071</v>
+        <v>8.556701304611758</v>
       </c>
       <c r="D25">
-        <v>5.715857484674607</v>
+        <v>5.700667079454544</v>
       </c>
       <c r="E25">
-        <v>8.220766001239586</v>
+        <v>8.294165125001154</v>
       </c>
       <c r="F25">
-        <v>20.54534850561006</v>
+        <v>19.45049332443442</v>
       </c>
       <c r="G25">
-        <v>2.104306909290623</v>
+        <v>4.561071441861931</v>
       </c>
       <c r="H25">
-        <v>2.448545431771212</v>
+        <v>2.248608193018578</v>
       </c>
       <c r="I25">
-        <v>3.14438456489198</v>
+        <v>2.918777272881763</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.50400956180748</v>
+        <v>15.5280536562136</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.62663198125556</v>
       </c>
       <c r="M25">
-        <v>11.60396004568757</v>
+        <v>10.34583095830969</v>
       </c>
       <c r="N25">
-        <v>6.767203916149464</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.34299569321905</v>
+        <v>11.70595622532163</v>
       </c>
       <c r="P25">
-        <v>13.19969285738898</v>
+        <v>6.941646840235277</v>
       </c>
       <c r="Q25">
-        <v>16.8142934281882</v>
+        <v>10.20042332169169</v>
+      </c>
+      <c r="R25">
+        <v>12.90558381379082</v>
+      </c>
+      <c r="S25">
+        <v>15.8400746397257</v>
       </c>
     </row>
   </sheetData>
